--- a/extraction/pageform_etape1.xlsx
+++ b/extraction/pageform_etape1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
   <si>
     <t>Sample Number</t>
   </si>
@@ -29,28 +29,28 @@
     <t>Col</t>
   </si>
   <si>
-    <t>C22 RT</t>
+    <t>1 1</t>
   </si>
   <si>
-    <t>C22 Area</t>
+    <t>1 2</t>
   </si>
   <si>
-    <t>C23 RT</t>
+    <t>2 1</t>
   </si>
   <si>
-    <t>C23 Area</t>
+    <t>2 2</t>
   </si>
   <si>
-    <t>C24 RT</t>
+    <t>3 1</t>
   </si>
   <si>
-    <t>C24 Area</t>
+    <t>3 2</t>
   </si>
   <si>
-    <t>C25 RT</t>
+    <t>4 1</t>
   </si>
   <si>
-    <t>C25 Area</t>
+    <t>4 2</t>
   </si>
   <si>
     <t>Area_Mean</t>
@@ -102,6 +102,15 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 2 3 4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area_Mean Count Form_Factor Hoechst_Mean </t>
   </si>
 </sst>
 </file>
@@ -440,7 +449,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:W241"/>
+  <dimension ref="A1:W244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,18 +457,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.424561" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="49.416504" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="13.996582" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="4.570313" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="4.570313" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="4.570313" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="4.570313" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="4.570313" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="4.570313" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="4.570313" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="4.570313" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="4.570313" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="4.570313" bestFit="true" customWidth="true" style="0"/>
     <col min="13" max="13" width="11.711426" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="13.996582" bestFit="true" customWidth="true" style="0"/>
@@ -3883,6 +3892,21 @@
         <v>22</v>
       </c>
     </row>
+    <row r="242" spans="1:23">
+      <c r="A242" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="243" spans="1:23">
+      <c r="A243" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="244" spans="1:23">
+      <c r="A244" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
